--- a/Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_processed.xlsx
+++ b/Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>sigma_VEC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>bulk_modulus</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -545,9 +540,6 @@
       <c r="M2" t="n">
         <v>1.854883648133144</v>
       </c>
-      <c r="N2" t="n">
-        <v>171875584492.886</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -589,9 +581,6 @@
       <c r="M3" t="n">
         <v>1.86699756583838</v>
       </c>
-      <c r="N3" t="n">
-        <v>171362340615.556</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -633,9 +622,6 @@
       <c r="M4" t="n">
         <v>1.860835719820995</v>
       </c>
-      <c r="N4" t="n">
-        <v>171134680994.3826</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -677,9 +663,6 @@
       <c r="M5" t="n">
         <v>1.855466976740344</v>
       </c>
-      <c r="N5" t="n">
-        <v>170955498840.3819</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -721,9 +704,6 @@
       <c r="M6" t="n">
         <v>1.846723059137253</v>
       </c>
-      <c r="N6" t="n">
-        <v>170927835447.7218</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -765,9 +745,6 @@
       <c r="M7" t="n">
         <v>1.750890315651342</v>
       </c>
-      <c r="N7" t="n">
-        <v>173553244759.3428</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -809,9 +786,6 @@
       <c r="M8" t="n">
         <v>1.783668816170993</v>
       </c>
-      <c r="N8" t="n">
-        <v>172959429812.3239</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -853,9 +827,6 @@
       <c r="M9" t="n">
         <v>1.810259609945069</v>
       </c>
-      <c r="N9" t="n">
-        <v>172387544736.0179</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -897,9 +868,6 @@
       <c r="M10" t="n">
         <v>1.821423299585024</v>
       </c>
-      <c r="N10" t="n">
-        <v>171976824777.6247</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -941,9 +909,6 @@
       <c r="M11" t="n">
         <v>1.835044455810978</v>
       </c>
-      <c r="N11" t="n">
-        <v>171540023173.286</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -985,9 +950,6 @@
       <c r="M12" t="n">
         <v>1.845065614118695</v>
       </c>
-      <c r="N12" t="n">
-        <v>171361160065.5832</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1029,9 +991,6 @@
       <c r="M13" t="n">
         <v>1.869517598110251</v>
       </c>
-      <c r="N13" t="n">
-        <v>171090025896.3692</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1073,9 +1032,6 @@
       <c r="M14" t="n">
         <v>1.561750253790709</v>
       </c>
-      <c r="N14" t="n">
-        <v>175167062391.103</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1117,9 +1073,6 @@
       <c r="M15" t="n">
         <v>1.638625076837699</v>
       </c>
-      <c r="N15" t="n">
-        <v>174436682277.9358</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1161,9 +1114,6 @@
       <c r="M16" t="n">
         <v>1.692022026540553</v>
       </c>
-      <c r="N16" t="n">
-        <v>173770283534.0762</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1205,9 +1155,6 @@
       <c r="M17" t="n">
         <v>1.743724699764246</v>
       </c>
-      <c r="N17" t="n">
-        <v>173048108291.5711</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1249,9 +1196,6 @@
       <c r="M18" t="n">
         <v>1.76729345111992</v>
       </c>
-      <c r="N18" t="n">
-        <v>172667424067.2321</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1293,9 +1237,6 @@
       <c r="M19" t="n">
         <v>1.806421150658787</v>
       </c>
-      <c r="N19" t="n">
-        <v>172069645980.8044</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1337,9 +1278,6 @@
       <c r="M20" t="n">
         <v>1.835182866771414</v>
       </c>
-      <c r="N20" t="n">
-        <v>171740634275.9437</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1381,9 +1319,6 @@
       <c r="M21" t="n">
         <v>1.87334037985938</v>
       </c>
-      <c r="N21" t="n">
-        <v>171338690568.26</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1425,9 +1360,6 @@
       <c r="M22" t="n">
         <v>1.927101311134162</v>
       </c>
-      <c r="N22" t="n">
-        <v>170789243832.3699</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1469,9 +1401,6 @@
       <c r="M23" t="n">
         <v>1.462526570850697</v>
       </c>
-      <c r="N23" t="n">
-        <v>175583784041.5738</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1513,9 +1442,6 @@
       <c r="M24" t="n">
         <v>1.541251999619234</v>
       </c>
-      <c r="N24" t="n">
-        <v>174898060452.5486</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1557,9 +1483,6 @@
       <c r="M25" t="n">
         <v>1.599506567855235</v>
       </c>
-      <c r="N25" t="n">
-        <v>174307159638.6331</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1601,9 +1524,6 @@
       <c r="M26" t="n">
         <v>1.655542093125456</v>
       </c>
-      <c r="N26" t="n">
-        <v>173653830337.7454</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1645,9 +1565,6 @@
       <c r="M27" t="n">
         <v>1.711073414995902</v>
       </c>
-      <c r="N27" t="n">
-        <v>172961543506.6572</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1689,9 +1606,6 @@
       <c r="M28" t="n">
         <v>1.75956979738066</v>
       </c>
-      <c r="N28" t="n">
-        <v>172488270214.1548</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1733,9 +1647,6 @@
       <c r="M29" t="n">
         <v>1.816323965305568</v>
       </c>
-      <c r="N29" t="n">
-        <v>171944057001.0225</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1777,9 +1688,6 @@
       <c r="M30" t="n">
         <v>1.880414202539238</v>
       </c>
-      <c r="N30" t="n">
-        <v>171270032414.911</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1821,9 +1729,6 @@
       <c r="M31" t="n">
         <v>1.93635772262265</v>
       </c>
-      <c r="N31" t="n">
-        <v>170719317149.7076</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1865,9 +1770,6 @@
       <c r="M32" t="n">
         <v>1.380621884400646</v>
       </c>
-      <c r="N32" t="n">
-        <v>175727095195.4889</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1909,9 +1811,6 @@
       <c r="M33" t="n">
         <v>1.458855759405878</v>
       </c>
-      <c r="N33" t="n">
-        <v>175047524479.3506</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1953,9 +1852,6 @@
       <c r="M34" t="n">
         <v>1.51954926352038</v>
       </c>
-      <c r="N34" t="n">
-        <v>174510570090.4048</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1997,9 +1893,6 @@
       <c r="M35" t="n">
         <v>1.577594998629744</v>
       </c>
-      <c r="N35" t="n">
-        <v>173904193885.4013</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2041,9 +1934,6 @@
       <c r="M36" t="n">
         <v>1.642908185162571</v>
       </c>
-      <c r="N36" t="n">
-        <v>173283337826.0369</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2085,9 +1975,6 @@
       <c r="M37" t="n">
         <v>1.701199642985428</v>
       </c>
-      <c r="N37" t="n">
-        <v>172782418010.0125</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2129,9 +2016,6 @@
       <c r="M38" t="n">
         <v>1.76865331408857</v>
       </c>
-      <c r="N38" t="n">
-        <v>172048775782.9243</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2173,9 +2057,6 @@
       <c r="M39" t="n">
         <v>1.854103709551148</v>
       </c>
-      <c r="N39" t="n">
-        <v>171391425509.927</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2217,9 +2098,6 @@
       <c r="M40" t="n">
         <v>1.927149426239511</v>
       </c>
-      <c r="N40" t="n">
-        <v>170540037883.9187</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2261,9 +2139,6 @@
       <c r="M41" t="n">
         <v>1.316324609641298</v>
       </c>
-      <c r="N41" t="n">
-        <v>175652244291.8241</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2305,9 +2180,6 @@
       <c r="M42" t="n">
         <v>1.380448262440933</v>
       </c>
-      <c r="N42" t="n">
-        <v>175036997342.4168</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2349,9 +2221,6 @@
       <c r="M43" t="n">
         <v>1.437625352181259</v>
       </c>
-      <c r="N43" t="n">
-        <v>174482917571.2287</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2393,9 +2262,6 @@
       <c r="M44" t="n">
         <v>1.497675826014134</v>
       </c>
-      <c r="N44" t="n">
-        <v>173897242923.9612</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2437,9 +2303,6 @@
       <c r="M45" t="n">
         <v>1.558533015770604</v>
       </c>
-      <c r="N45" t="n">
-        <v>173366707468.586</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2481,9 +2344,6 @@
       <c r="M46" t="n">
         <v>1.641249905139774</v>
       </c>
-      <c r="N46" t="n">
-        <v>172720571030.3566</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2525,9 +2385,6 @@
       <c r="M47" t="n">
         <v>1.714113191631074</v>
       </c>
-      <c r="N47" t="n">
-        <v>172158461445.4207</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2569,9 +2426,6 @@
       <c r="M48" t="n">
         <v>1.820110306355468</v>
       </c>
-      <c r="N48" t="n">
-        <v>171282649778.7812</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2613,9 +2467,6 @@
       <c r="M49" t="n">
         <v>1.914868691477184</v>
       </c>
-      <c r="N49" t="n">
-        <v>170443861641.2711</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2657,9 +2508,6 @@
       <c r="M50" t="n">
         <v>1.276817161411238</v>
       </c>
-      <c r="N50" t="n">
-        <v>175214411505.1251</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2701,9 +2549,6 @@
       <c r="M51" t="n">
         <v>1.323155177163384</v>
       </c>
-      <c r="N51" t="n">
-        <v>174677084188.5663</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2745,9 +2590,6 @@
       <c r="M52" t="n">
         <v>1.357568245523672</v>
       </c>
-      <c r="N52" t="n">
-        <v>174208915903.5884</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2789,9 +2631,6 @@
       <c r="M53" t="n">
         <v>1.413398103016241</v>
       </c>
-      <c r="N53" t="n">
-        <v>173763268973.1132</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2833,9 +2672,6 @@
       <c r="M54" t="n">
         <v>1.481049154564836</v>
       </c>
-      <c r="N54" t="n">
-        <v>173210023483.2144</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2877,9 +2713,6 @@
       <c r="M55" t="n">
         <v>1.553559684143321</v>
       </c>
-      <c r="N55" t="n">
-        <v>172688563514.7172</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2921,9 +2754,6 @@
       <c r="M56" t="n">
         <v>1.656063968330844</v>
       </c>
-      <c r="N56" t="n">
-        <v>172070822407.6116</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2965,9 +2795,6 @@
       <c r="M57" t="n">
         <v>1.770783550118297</v>
       </c>
-      <c r="N57" t="n">
-        <v>171296552454.5485</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3009,9 +2836,6 @@
       <c r="M58" t="n">
         <v>1.874919214437808</v>
       </c>
-      <c r="N58" t="n">
-        <v>170416038832.6851</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3053,9 +2877,6 @@
       <c r="M59" t="n">
         <v>1.257111884835559</v>
       </c>
-      <c r="N59" t="n">
-        <v>174180674670.2687</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3097,9 +2918,6 @@
       <c r="M60" t="n">
         <v>1.291995277657361</v>
       </c>
-      <c r="N60" t="n">
-        <v>173802780464.3768</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3141,9 +2959,6 @@
       <c r="M61" t="n">
         <v>1.344226957979696</v>
       </c>
-      <c r="N61" t="n">
-        <v>173372671875.4399</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3185,9 +3000,6 @@
       <c r="M62" t="n">
         <v>1.39133283844068</v>
       </c>
-      <c r="N62" t="n">
-        <v>172957796645.933</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3229,9 +3041,6 @@
       <c r="M63" t="n">
         <v>1.47494070944119</v>
       </c>
-      <c r="N63" t="n">
-        <v>172488024546.7152</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3273,9 +3082,6 @@
       <c r="M64" t="n">
         <v>1.57026622705338</v>
       </c>
-      <c r="N64" t="n">
-        <v>171898837490.3</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3317,9 +3123,6 @@
       <c r="M65" t="n">
         <v>1.693277583234823</v>
       </c>
-      <c r="N65" t="n">
-        <v>171300552455.3383</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3361,9 +3164,6 @@
       <c r="M66" t="n">
         <v>1.212817224831085</v>
       </c>
-      <c r="N66" t="n">
-        <v>173211376128.965</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3405,9 +3205,6 @@
       <c r="M67" t="n">
         <v>1.256868418005553</v>
       </c>
-      <c r="N67" t="n">
-        <v>172878867762.8279</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3449,9 +3246,6 @@
       <c r="M68" t="n">
         <v>1.311634526868541</v>
       </c>
-      <c r="N68" t="n">
-        <v>172581795085.3334</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3493,9 +3287,6 @@
       <c r="M69" t="n">
         <v>1.386573576065322</v>
       </c>
-      <c r="N69" t="n">
-        <v>172169673351.7011</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3536,9 +3327,6 @@
       </c>
       <c r="M70" t="n">
         <v>1.496411259435297</v>
-      </c>
-      <c r="N70" t="n">
-        <v>171788846968.1756</v>
       </c>
     </row>
   </sheetData>
